--- a/articles/2021-07-01-how-are-developing-economies-coping-with-the-covid-19-crisis/raw/fig2.xlsx
+++ b/articles/2021-07-01-how-are-developing-economies-coping-with-the-covid-19-crisis/raw/fig2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\Github\eco\ecovisualisations\articles\2021-07-01-how-are-developing-economies-coping-with-the-covid-19-crisis\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0206766-15CF-4FBA-90F3-018DAF243C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B9BBEE-A9E4-4F4E-82B5-7D3D6D274EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="885" yWindow="-90" windowWidth="18405" windowHeight="10980" xr2:uid="{DDFA64DA-BF5C-40F1-B76B-54D096AED370}"/>
   </bookViews>
@@ -492,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B90F8DD-F9E7-4101-9B81-D9AF8F3A9466}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -526,10 +526,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="3">
-        <v>76.994037565709803</v>
+        <v>1</v>
       </c>
       <c r="D2" s="3">
-        <v>79.443087155819896</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -546,10 +546,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="3">
-        <v>87.263839474583094</v>
+        <v>2</v>
       </c>
       <c r="D3" s="3">
-        <v>61.468410917582361</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -566,10 +566,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="3">
-        <v>40.318216845282791</v>
+        <v>4</v>
       </c>
       <c r="D4" s="3">
-        <v>43.235522580289135</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -586,10 +586,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="3">
-        <v>51.550442085669246</v>
+        <v>5</v>
       </c>
       <c r="D5" s="3">
-        <v>46.745476327112989</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -606,10 +606,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="3">
-        <v>65.832241231824682</v>
+        <v>2</v>
       </c>
       <c r="D6" s="3">
-        <v>74.228228788012345</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -626,10 +626,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>70.92560269884369</v>
+        <v>1</v>
       </c>
       <c r="D7" s="3">
-        <v>71.600920643276282</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
@@ -646,10 +646,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="3">
-        <v>72.655852645808139</v>
+        <v>2</v>
       </c>
       <c r="D8" s="3">
-        <v>62.769737378903045</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
@@ -666,10 +666,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>76.994037565709803</v>
+        <v>1</v>
       </c>
       <c r="D9" s="3">
-        <v>79.443087155819896</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -686,10 +686,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="3">
-        <v>87.263839474583094</v>
+        <v>1</v>
       </c>
       <c r="D10" s="3">
-        <v>61.468410917582361</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -706,10 +706,10 @@
         <v>5</v>
       </c>
       <c r="C11" s="3">
-        <v>40.318216845282791</v>
+        <v>5</v>
       </c>
       <c r="D11" s="3">
-        <v>43.235522580289135</v>
+        <v>4</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -726,10 +726,10 @@
         <v>2</v>
       </c>
       <c r="C12" s="3">
-        <v>51.550442085669246</v>
+        <v>1</v>
       </c>
       <c r="D12" s="3">
-        <v>46.745476327112989</v>
+        <v>2</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -746,10 +746,10 @@
         <v>4</v>
       </c>
       <c r="C13" s="3">
-        <v>65.832241231824682</v>
+        <v>4</v>
       </c>
       <c r="D13" s="3">
-        <v>74.228228788012345</v>
+        <v>4</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
@@ -766,10 +766,10 @@
         <v>3</v>
       </c>
       <c r="C14" s="3">
-        <v>70.92560269884369</v>
+        <v>2</v>
       </c>
       <c r="D14" s="3">
-        <v>71.600920643276282</v>
+        <v>3</v>
       </c>
       <c r="E14" t="s">
         <v>13</v>
@@ -786,10 +786,10 @@
         <v>4</v>
       </c>
       <c r="C15" s="3">
-        <v>72.655852645808139</v>
+        <v>4</v>
       </c>
       <c r="D15" s="3">
-        <v>62.769737378903045</v>
+        <v>4</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
@@ -806,10 +806,10 @@
         <v>3</v>
       </c>
       <c r="C16" s="3">
-        <v>76.994037565709803</v>
+        <v>1</v>
       </c>
       <c r="D16" s="3">
-        <v>79.443087155819896</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -826,10 +826,10 @@
         <v>4</v>
       </c>
       <c r="C17" s="3">
-        <v>87.263839474583094</v>
+        <v>1</v>
       </c>
       <c r="D17" s="3">
-        <v>61.468410917582361</v>
+        <v>2</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -846,10 +846,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="3">
-        <v>40.318216845282791</v>
+        <v>1</v>
       </c>
       <c r="D18" s="3">
-        <v>43.235522580289135</v>
+        <v>1</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
@@ -866,10 +866,10 @@
         <v>5</v>
       </c>
       <c r="C19" s="3">
-        <v>51.550442085669246</v>
+        <v>4</v>
       </c>
       <c r="D19" s="3">
-        <v>46.745476327112989</v>
+        <v>4</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
@@ -886,10 +886,10 @@
         <v>2</v>
       </c>
       <c r="C20" s="3">
-        <v>65.832241231824682</v>
+        <v>2</v>
       </c>
       <c r="D20" s="3">
-        <v>74.228228788012345</v>
+        <v>1</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -906,10 +906,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="3">
-        <v>70.92560269884369</v>
+        <v>3</v>
       </c>
       <c r="D21" s="3">
-        <v>71.600920643276282</v>
+        <v>3</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -926,10 +926,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="3">
-        <v>72.655852645808139</v>
+        <v>1</v>
       </c>
       <c r="D22" s="3">
-        <v>62.769737378903045</v>
+        <v>2</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -942,12 +942,14 @@
       <c r="A23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="2">
+        <v>3</v>
+      </c>
       <c r="C23" s="3">
-        <v>76.994037565709803</v>
+        <v>2</v>
       </c>
       <c r="D23" s="3">
-        <v>79.443087155819896</v>
+        <v>2</v>
       </c>
       <c r="E23" t="s">
         <v>15</v>
@@ -960,12 +962,14 @@
       <c r="A24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
       <c r="C24" s="3">
-        <v>87.263839474583094</v>
+        <v>1</v>
       </c>
       <c r="D24" s="3">
-        <v>61.468410917582361</v>
+        <v>1</v>
       </c>
       <c r="E24" t="s">
         <v>15</v>
@@ -978,12 +982,14 @@
       <c r="A25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="2"/>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
       <c r="C25" s="3">
-        <v>40.318216845282791</v>
+        <v>1</v>
       </c>
       <c r="D25" s="3">
-        <v>43.235522580289135</v>
+        <v>1</v>
       </c>
       <c r="E25" t="s">
         <v>15</v>
@@ -996,12 +1002,14 @@
       <c r="A26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="2"/>
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
       <c r="C26" s="3">
-        <v>51.550442085669246</v>
+        <v>1</v>
       </c>
       <c r="D26" s="3">
-        <v>46.745476327112989</v>
+        <v>1</v>
       </c>
       <c r="E26" t="s">
         <v>15</v>
@@ -1014,12 +1022,14 @@
       <c r="A27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="2"/>
+      <c r="B27" s="2">
+        <v>3</v>
+      </c>
       <c r="C27" s="3">
-        <v>65.832241231824682</v>
+        <v>2</v>
       </c>
       <c r="D27" s="3">
-        <v>74.228228788012345</v>
+        <v>2</v>
       </c>
       <c r="E27" t="s">
         <v>15</v>
@@ -1032,12 +1042,14 @@
       <c r="A28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="2"/>
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
       <c r="C28" s="3">
-        <v>70.92560269884369</v>
+        <v>1</v>
       </c>
       <c r="D28" s="3">
-        <v>71.600920643276282</v>
+        <v>2</v>
       </c>
       <c r="E28" t="s">
         <v>15</v>
@@ -1050,12 +1062,14 @@
       <c r="A29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="2"/>
+      <c r="B29" s="2">
+        <v>3</v>
+      </c>
       <c r="C29" s="3">
-        <v>72.655852645808139</v>
+        <v>4</v>
       </c>
       <c r="D29" s="3">
-        <v>62.769737378903045</v>
+        <v>4</v>
       </c>
       <c r="E29" t="s">
         <v>15</v>
@@ -1068,12 +1082,14 @@
       <c r="A30" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="2"/>
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
       <c r="C30" s="3">
-        <v>76.994037565709803</v>
+        <v>1</v>
       </c>
       <c r="D30" s="3">
-        <v>79.443087155819896</v>
+        <v>1</v>
       </c>
       <c r="E30" t="s">
         <v>16</v>
@@ -1086,12 +1102,14 @@
       <c r="A31" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="2"/>
+      <c r="B31" s="2">
+        <v>2</v>
+      </c>
       <c r="C31" s="3">
-        <v>87.263839474583094</v>
+        <v>1</v>
       </c>
       <c r="D31" s="3">
-        <v>61.468410917582361</v>
+        <v>2</v>
       </c>
       <c r="E31" t="s">
         <v>16</v>
@@ -1104,12 +1122,14 @@
       <c r="A32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="2"/>
+      <c r="B32" s="2">
+        <v>2</v>
+      </c>
       <c r="C32" s="3">
-        <v>40.318216845282791</v>
+        <v>2</v>
       </c>
       <c r="D32" s="3">
-        <v>43.235522580289135</v>
+        <v>2</v>
       </c>
       <c r="E32" t="s">
         <v>16</v>
@@ -1122,12 +1142,14 @@
       <c r="A33" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="2"/>
+      <c r="B33" s="2">
+        <v>2</v>
+      </c>
       <c r="C33" s="3">
-        <v>51.550442085669246</v>
+        <v>1</v>
       </c>
       <c r="D33" s="3">
-        <v>46.745476327112989</v>
+        <v>1</v>
       </c>
       <c r="E33" t="s">
         <v>16</v>
@@ -1140,12 +1162,14 @@
       <c r="A34" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="2"/>
+      <c r="B34" s="2">
+        <v>3</v>
+      </c>
       <c r="C34" s="3">
-        <v>65.832241231824682</v>
+        <v>3</v>
       </c>
       <c r="D34" s="3">
-        <v>74.228228788012345</v>
+        <v>3</v>
       </c>
       <c r="E34" t="s">
         <v>16</v>
@@ -1158,12 +1182,14 @@
       <c r="A35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="2"/>
+      <c r="B35" s="2">
+        <v>4</v>
+      </c>
       <c r="C35" s="3">
-        <v>70.92560269884369</v>
+        <v>4</v>
       </c>
       <c r="D35" s="3">
-        <v>71.600920643276282</v>
+        <v>5</v>
       </c>
       <c r="E35" t="s">
         <v>16</v>
@@ -1176,12 +1202,14 @@
       <c r="A36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="2"/>
+      <c r="B36" s="2">
+        <v>2</v>
+      </c>
       <c r="C36" s="3">
-        <v>72.655852645808139</v>
+        <v>2</v>
       </c>
       <c r="D36" s="3">
-        <v>62.769737378903045</v>
+        <v>2</v>
       </c>
       <c r="E36" t="s">
         <v>16</v>

--- a/articles/2021-07-01-how-are-developing-economies-coping-with-the-covid-19-crisis/raw/fig2.xlsx
+++ b/articles/2021-07-01-how-are-developing-economies-coping-with-the-covid-19-crisis/raw/fig2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\Github\eco\ecovisualisations\articles\2021-07-01-how-are-developing-economies-coping-with-the-covid-19-crisis\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B9BBEE-A9E4-4F4E-82B5-7D3D6D274EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890B3417-86DD-4A7F-8130-F4297AC42253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="885" yWindow="-90" windowWidth="18405" windowHeight="10980" xr2:uid="{DDFA64DA-BF5C-40F1-B76B-54D096AED370}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="20">
   <si>
     <t>Sovereign</t>
   </si>
@@ -490,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B90F8DD-F9E7-4101-9B81-D9AF8F3A9466}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -522,19 +522,10 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -542,19 +533,10 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3">
-        <v>3</v>
-      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
       <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -562,19 +544,10 @@
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3">
-        <v>4</v>
-      </c>
-      <c r="D4" s="3">
-        <v>4</v>
-      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
       <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -582,19 +555,10 @@
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3">
-        <v>5</v>
-      </c>
-      <c r="D5" s="3">
-        <v>5</v>
-      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
       <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -602,19 +566,10 @@
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3">
-        <v>2</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
       <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -622,19 +577,10 @@
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3">
-        <v>2</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
       <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -642,19 +588,10 @@
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2">
-        <v>2</v>
-      </c>
-      <c r="C8" s="3">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3">
-        <v>2</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
       <c r="E8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -663,7 +600,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
@@ -672,7 +609,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
@@ -683,16 +620,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
@@ -703,16 +640,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="3">
         <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
         <v>18</v>
@@ -723,16 +660,16 @@
         <v>3</v>
       </c>
       <c r="B12" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C12" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D12" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
@@ -743,16 +680,16 @@
         <v>4</v>
       </c>
       <c r="B13" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C13" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
@@ -763,16 +700,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F14" t="s">
         <v>18</v>
@@ -783,16 +720,16 @@
         <v>8</v>
       </c>
       <c r="B15" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C15" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F15" t="s">
         <v>18</v>
@@ -803,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -812,7 +749,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
         <v>18</v>
@@ -823,16 +760,16 @@
         <v>1</v>
       </c>
       <c r="B17" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
       </c>
       <c r="D17" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
@@ -843,16 +780,16 @@
         <v>2</v>
       </c>
       <c r="B18" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C18" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D18" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -863,16 +800,16 @@
         <v>3</v>
       </c>
       <c r="B19" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C19" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D19" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
         <v>18</v>
@@ -883,16 +820,16 @@
         <v>4</v>
       </c>
       <c r="B20" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C20" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
         <v>18</v>
@@ -906,13 +843,13 @@
         <v>3</v>
       </c>
       <c r="C21" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" s="3">
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F21" t="s">
         <v>18</v>
@@ -923,16 +860,16 @@
         <v>8</v>
       </c>
       <c r="B22" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C22" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D22" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F22" t="s">
         <v>18</v>
@@ -946,16 +883,16 @@
         <v>3</v>
       </c>
       <c r="C23" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.75">
@@ -963,19 +900,19 @@
         <v>1</v>
       </c>
       <c r="B24" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
       </c>
       <c r="D24" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.75">
@@ -992,10 +929,10 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.75">
@@ -1003,19 +940,19 @@
         <v>3</v>
       </c>
       <c r="B26" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C26" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D26" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.75">
@@ -1023,19 +960,19 @@
         <v>4</v>
       </c>
       <c r="B27" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" s="3">
         <v>2</v>
       </c>
       <c r="D27" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.75">
@@ -1043,19 +980,19 @@
         <v>5</v>
       </c>
       <c r="B28" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C28" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D28" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.75">
@@ -1063,38 +1000,29 @@
         <v>8</v>
       </c>
       <c r="B29" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D29" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A30" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="2">
-        <v>1</v>
-      </c>
-      <c r="C30" s="3">
-        <v>1</v>
-      </c>
-      <c r="D30" s="3">
-        <v>1</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
       <c r="E30" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1102,19 +1030,10 @@
       <c r="A31" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="2">
-        <v>2</v>
-      </c>
-      <c r="C31" s="3">
-        <v>1</v>
-      </c>
-      <c r="D31" s="3">
-        <v>2</v>
-      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
       <c r="E31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1122,19 +1041,10 @@
       <c r="A32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="2">
-        <v>2</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>2</v>
-      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
       <c r="E32" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1142,19 +1052,10 @@
       <c r="A33" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="2">
-        <v>2</v>
-      </c>
-      <c r="C33" s="3">
-        <v>1</v>
-      </c>
-      <c r="D33" s="3">
-        <v>1</v>
-      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
       <c r="E33" t="s">
-        <v>16</v>
-      </c>
-      <c r="F33" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1162,19 +1063,10 @@
       <c r="A34" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="2">
-        <v>3</v>
-      </c>
-      <c r="C34" s="3">
-        <v>3</v>
-      </c>
-      <c r="D34" s="3">
-        <v>3</v>
-      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
       <c r="E34" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1182,19 +1074,10 @@
       <c r="A35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="2">
-        <v>4</v>
-      </c>
-      <c r="C35" s="3">
-        <v>4</v>
-      </c>
-      <c r="D35" s="3">
-        <v>5</v>
-      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
       <c r="E35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1202,19 +1085,290 @@
       <c r="A36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="2">
-        <v>2</v>
-      </c>
-      <c r="C36" s="3">
-        <v>2</v>
-      </c>
-      <c r="D36" s="3">
-        <v>2</v>
-      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
       <c r="E36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="2">
+        <v>3</v>
+      </c>
+      <c r="C37" s="3">
+        <v>2</v>
+      </c>
+      <c r="D37" s="3">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="2">
+        <v>3</v>
+      </c>
+      <c r="C41" s="3">
+        <v>2</v>
+      </c>
+      <c r="D41" s="3">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="2">
+        <v>3</v>
+      </c>
+      <c r="C43" s="3">
+        <v>4</v>
+      </c>
+      <c r="D43" s="3">
+        <v>4</v>
+      </c>
+      <c r="E43" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
         <v>16</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="2">
+        <v>2</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1</v>
+      </c>
+      <c r="D45" s="3">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="2">
+        <v>2</v>
+      </c>
+      <c r="C46" s="3">
+        <v>2</v>
+      </c>
+      <c r="D46" s="3">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="2">
+        <v>2</v>
+      </c>
+      <c r="C47" s="3">
+        <v>1</v>
+      </c>
+      <c r="D47" s="3">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="2">
+        <v>3</v>
+      </c>
+      <c r="C48" s="3">
+        <v>3</v>
+      </c>
+      <c r="D48" s="3">
+        <v>3</v>
+      </c>
+      <c r="E48" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="2">
+        <v>4</v>
+      </c>
+      <c r="C49" s="3">
+        <v>4</v>
+      </c>
+      <c r="D49" s="3">
+        <v>5</v>
+      </c>
+      <c r="E49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="2">
+        <v>2</v>
+      </c>
+      <c r="C50" s="3">
+        <v>2</v>
+      </c>
+      <c r="D50" s="3">
+        <v>2</v>
+      </c>
+      <c r="E50" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" t="s">
         <v>19</v>
       </c>
     </row>
